--- a/主副域名對照表.xlsx
+++ b/主副域名對照表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,215 @@
   </si>
   <si>
     <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVH5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT肥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT肥H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mark.phacg.com</t>
+  </si>
+  <si>
+    <t>http://mark.phacg2.com</t>
+  </si>
+  <si>
+    <t>http://mark.phacg3.com</t>
+  </si>
+  <si>
+    <t>http://mark487.uat.com</t>
+  </si>
+  <si>
+    <t>http://m.mark9487.uat.com</t>
+  </si>
+  <si>
+    <t>http://m.mark.phacg.com</t>
+  </si>
+  <si>
+    <t>http://m.mark.phacg2.com</t>
+  </si>
+  <si>
+    <t>http://m.mark.phacg3.com</t>
+  </si>
+  <si>
+    <t>UAT海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT海H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yihaocp69.phacg.com</t>
+  </si>
+  <si>
+    <t>第一套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一套主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://1066111.com</t>
+  </si>
+  <si>
+    <t>第一套副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.1066111.com</t>
+  </si>
+  <si>
+    <t>http://m.yihaocp69.phacg.com</t>
+  </si>
+  <si>
+    <t>第一套H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一套H5主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一套H5副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acg888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwe123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ttzcp.phacg2.com</t>
+  </si>
+  <si>
+    <t>http://m.ttzcp.phacg2.com</t>
+  </si>
+  <si>
+    <t>http://m.ttz606.com</t>
+  </si>
+  <si>
+    <t>http://ttz606.com</t>
+  </si>
+  <si>
+    <t>第二套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套H5主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二套H5副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dawanjia.phacg3.com</t>
+  </si>
+  <si>
+    <t>http://m.dawanjia.phacg3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.da11880.com</t>
+  </si>
+  <si>
+    <t>http://da11880.com</t>
+  </si>
+  <si>
+    <t>第三套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套H5主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三套H5副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://500cp060.phacg4.com</t>
+  </si>
+  <si>
+    <t>http://m.500cp060.phacg4.com</t>
+  </si>
+  <si>
+    <t>http://m.50082.com</t>
+  </si>
+  <si>
+    <t>http://50082.com</t>
+  </si>
+  <si>
+    <t>第四套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四套H5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四套主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四套副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四套H5主域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四套H5副域名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,261 +745,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>39</v>
       </c>
-      <c r="J7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>41</v>
       </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>43</v>
       </c>
-      <c r="J9" t="s">
-        <v>33</v>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="J18" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/主副域名對照表.xlsx
+++ b/主副域名對照表.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="107">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,22 @@
   </si>
   <si>
     <t>第四套H5副域名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列號</t>
+  </si>
+  <si>
+    <t>SITEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">111 222 333 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢查目標
+請輸入要檢測的字,若開頭為「http」,請輸入到「.com」即可(多個請用空白隔開)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,12 +473,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L21"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -756,11 +775,16 @@
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.875" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
       <c r="B1" t="s">
         <v>45</v>
       </c>
@@ -776,23 +800,38 @@
       <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -809,22 +848,28 @@
         <v>35</v>
       </c>
       <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -840,23 +885,26 @@
       <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
@@ -872,23 +920,26 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>48</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
@@ -904,23 +955,26 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -936,23 +990,26 @@
       <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>36</v>
       </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
@@ -968,23 +1025,26 @@
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>39</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1000,23 +1060,26 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
@@ -1032,23 +1095,26 @@
       <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
@@ -1064,23 +1130,26 @@
       <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>60</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -1096,23 +1165,26 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>60</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>56</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>36</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>59</v>
       </c>
@@ -1128,23 +1200,26 @@
       <c r="F12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>60</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>36</v>
       </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
@@ -1160,23 +1235,26 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>60</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>58</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>36</v>
       </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -1192,23 +1270,26 @@
       <c r="F14" t="s">
         <v>72</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>67</v>
       </c>
-      <c r="K14" t="s">
-        <v>71</v>
-      </c>
       <c r="L14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>62</v>
       </c>
@@ -1224,23 +1305,26 @@
       <c r="F15" t="s">
         <v>72</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>68</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" t="s">
-        <v>71</v>
-      </c>
       <c r="L15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>77</v>
       </c>
@@ -1256,23 +1340,26 @@
       <c r="F16" t="s">
         <v>72</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>80</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>81</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>74</v>
       </c>
-      <c r="K16" t="s">
-        <v>71</v>
-      </c>
       <c r="L16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
@@ -1288,23 +1375,26 @@
       <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>82</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>75</v>
       </c>
-      <c r="K17" t="s">
-        <v>71</v>
-      </c>
       <c r="L17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
@@ -1320,23 +1410,26 @@
       <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>90</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K18" t="s">
-        <v>71</v>
-      </c>
       <c r="L18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>87</v>
       </c>
@@ -1352,23 +1445,26 @@
       <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>90</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>92</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>85</v>
       </c>
-      <c r="K19" t="s">
-        <v>71</v>
-      </c>
       <c r="L19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>97</v>
       </c>
@@ -1384,23 +1480,26 @@
       <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>98</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>101</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>94</v>
       </c>
-      <c r="K20" t="s">
-        <v>71</v>
-      </c>
       <c r="L20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>97</v>
       </c>
@@ -1416,19 +1515,419 @@
       <c r="F21" t="s">
         <v>72</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>98</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>102</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>95</v>
       </c>
-      <c r="K21" t="s">
-        <v>71</v>
-      </c>
       <c r="L21" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1436,9 +1935,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="J18" r:id="rId2"/>
+    <hyperlink ref="K18" r:id="rId2"/>
+    <hyperlink ref="D38" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/主副域名對照表.xlsx
+++ b/主副域名對照表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Test\JS檢查用\JSCheck\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H5名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://m.winvip888.com:8081</t>
   </si>
   <si>
@@ -201,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEVH5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,23 +398,22 @@
   </si>
   <si>
     <t>SITEID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">111 222 333 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>檢查目標
 請輸入要檢測的字,若開頭為「http」,請輸入到「.com」即可(多個請用空白隔開)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.providesupport.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -446,6 +437,12 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -767,7 +767,7 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -776,17 +776,16 @@
     <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="71.875" customWidth="1"/>
-    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="71.875" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -795,355 +794,259 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>341</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>341</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>341</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" t="s">
-        <v>44</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>341</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-      <c r="M6" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>341</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <v>341</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>341</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>341</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>341</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1151,34 +1054,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>341</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1186,34 +1080,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>341</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1221,34 +1106,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>341</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1256,34 +1132,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>341</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1291,34 +1158,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" t="s">
         <v>70</v>
       </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" t="s">
-        <v>72</v>
+      <c r="G15">
+        <v>341</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1326,619 +1184,685 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" t="s">
-        <v>74</v>
-      </c>
-      <c r="L16" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>341</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>341</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G18">
+        <v>341</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="C19" t="s">
-        <v>89</v>
-      </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" t="s">
-        <v>90</v>
-      </c>
-      <c r="J19" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>341</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
         <v>97</v>
       </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" t="s">
-        <v>71</v>
-      </c>
-      <c r="M20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G20">
+        <v>341</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>341</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G22">
+        <v>341</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G23">
+        <v>341</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>341</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>341</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G26">
+        <v>341</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G27">
+        <v>341</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G28">
+        <v>341</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G29">
+        <v>341</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G30">
+        <v>341</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G31">
+        <v>341</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32">
+        <v>341</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G33">
+        <v>341</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="D34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G34">
+        <v>341</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>341</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>341</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
-        <v>82</v>
-      </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>341</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>341</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
         <v>90</v>
       </c>
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G39">
+        <v>341</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <v>341</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>341</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="K18" r:id="rId2"/>
-    <hyperlink ref="D38" r:id="rId3"/>
+    <hyperlink ref="D38" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/主副域名對照表.xlsx
+++ b/主副域名對照表.xlsx
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="105">
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="116">
   <si>
     <t>Web名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://xycp165.phacg.com:8081</t>
-  </si>
-  <si>
     <t>http://m.xycp165.phacg.com:8081</t>
   </si>
   <si>
@@ -129,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://winvip888.com:8081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://xycp165.phacg3.com:8081</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,10 +384,6 @@
   </si>
   <si>
     <t>序列號</t>
-  </si>
-  <si>
-    <t>SITEID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>檢查目標
@@ -407,6 +392,63 @@
   </si>
   <si>
     <t>https://image.providesupport.com</t>
+  </si>
+  <si>
+    <t>https://static.meiqia.com/dist/meiqia.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://winvip888.com:8081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xycp165.phacg.com:8081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UATH5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.66.phacg.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.66.phacg2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.66.phacg3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.yingjia66.duasla.com</t>
+  </si>
+  <si>
+    <t>http://yingjia66.phacg.com</t>
+  </si>
+  <si>
+    <t>http://yingjia66.phacg2.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yingjia66.phacg3.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://winvip66.acgtest.com</t>
+  </si>
+  <si>
+    <t>SITEID(空白不修改)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -782,28 +824,28 @@
   <sheetData>
     <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O1" s="2"/>
     </row>
@@ -812,25 +854,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O2" s="3"/>
     </row>
@@ -839,25 +881,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O3" s="3"/>
     </row>
@@ -866,25 +908,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -893,25 +935,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O5" s="3"/>
     </row>
@@ -920,25 +962,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O6" s="3"/>
     </row>
@@ -947,25 +986,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O7" s="3"/>
     </row>
@@ -974,25 +1010,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O8" s="3"/>
     </row>
@@ -1001,25 +1034,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O9" s="3"/>
     </row>
@@ -1028,129 +1058,133 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10">
         <v>341</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>341</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>341</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13">
         <v>341</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>341</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1158,25 +1192,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G15">
         <v>341</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1184,25 +1218,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>341</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1210,25 +1244,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G17">
         <v>341</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1236,52 +1270,51 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G18">
         <v>341</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G19">
         <v>341</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1289,25 +1322,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20">
         <v>341</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1315,25 +1348,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G21">
         <v>341</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1341,51 +1374,52 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G22">
         <v>341</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>341</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1393,25 +1427,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G24">
         <v>341</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,25 +1453,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G25">
         <v>341</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1445,25 +1479,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1471,25 +1505,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G27">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,25 +1531,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G28">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1523,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G29">
-        <v>341</v>
+        <v>10732</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1549,25 +1583,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1575,25 +1606,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,25 +1629,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,25 +1652,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1653,25 +1675,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>341</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1679,25 +1701,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G35">
         <v>341</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1705,25 +1727,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>341</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1731,25 +1753,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G37">
         <v>341</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,25 +1779,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G38">
         <v>341</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1783,25 +1805,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G39">
         <v>341</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1809,25 +1831,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="G40">
         <v>341</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1835,34 +1857,254 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41">
+        <v>341</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42">
+        <v>341</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43">
+        <v>341</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44">
+        <v>341</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45">
+        <v>341</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46">
+        <v>341</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47">
+        <v>341</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="C41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48">
+        <v>341</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="E41" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41">
-        <v>341</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>104</v>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49">
+        <v>341</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D38" r:id="rId2"/>
+    <hyperlink ref="D46" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="H3:H5" r:id="rId4" display="https://static.meiqia.com/dist/meiqia.js"/>
+    <hyperlink ref="H26:H29" r:id="rId5" display="https://static.meiqia.com/dist/meiqia.js"/>
+    <hyperlink ref="H5" r:id="rId6"/>
+    <hyperlink ref="D31" r:id="rId7"/>
+    <hyperlink ref="D32" r:id="rId8"/>
+    <hyperlink ref="D33" r:id="rId9"/>
+    <hyperlink ref="H30:H33" r:id="rId10" display="https://static.meiqia.com/dist/meiqia.js"/>
+    <hyperlink ref="H6" r:id="rId11"/>
+    <hyperlink ref="H7:H9" r:id="rId12" display="https://static.meiqia.com/dist/meiqia.js"/>
+    <hyperlink ref="D8" r:id="rId13"/>
+    <hyperlink ref="D9" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>